--- a/data/trans_orig/P14B24_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC969A1D-FBBC-47D5-AB67-CFD0B3FE9A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A170D6D9-7C78-4018-969C-4DFCC26FBCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA29BDAD-D254-4F6E-8190-4C54242081C0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0161FB93-704A-4692-AFD3-304DB4CB823F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="263">
   <si>
     <t>Población cuyos trastornos de ansiedad le limita en 2015 (Tasa respuesta: 4,19%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>89,97%</t>
   </si>
   <si>
-    <t>55,99%</t>
+    <t>44,21%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>73,86%</t>
   </si>
   <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -111,16 +111,16 @@
     <t>10,03%</t>
   </si>
   <si>
-    <t>44,01%</t>
+    <t>55,79%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -129,49 +129,49 @@
     <t>27,88%</t>
   </si>
   <si>
-    <t>71,16%</t>
+    <t>72,03%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>42,81%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
   </si>
   <si>
     <t>72,12%</t>
   </si>
   <si>
-    <t>28,84%</t>
+    <t>27,97%</t>
   </si>
   <si>
     <t>48,42%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>57,19%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -180,55 +180,55 @@
     <t>51,98%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>56,46%</t>
   </si>
   <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>55,41%</t>
   </si>
   <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>44,59%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -237,7 +237,7 @@
     <t>80,93%</t>
   </si>
   <si>
-    <t>50,02%</t>
+    <t>55,37%</t>
   </si>
   <si>
     <t>94,58%</t>
@@ -246,19 +246,19 @@
     <t>61,79%</t>
   </si>
   <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>66,68%</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>19,07%</t>
@@ -267,25 +267,25 @@
     <t>5,42%</t>
   </si>
   <si>
-    <t>49,98%</t>
+    <t>44,63%</t>
   </si>
   <si>
     <t>38,21%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -294,55 +294,55 @@
     <t>52,6%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>51,5%</t>
   </si>
   <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>48,24%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -351,109 +351,109 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -471,19 +471,19 @@
     <t>64,46%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -495,343 +495,337 @@
     <t>35,54%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>63,61%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>56,83%</t>
   </si>
   <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
   </si>
   <si>
     <t>43,17%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>54,46%</t>
   </si>
   <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>62,26%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
   </si>
   <si>
     <t>45,54%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>37,74%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>64,36%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>35,41%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>58,62%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>72,75%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>41,38%</t>
   </si>
   <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>66,23%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>60,92%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>33,77%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>39,08%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A5064D-8ADD-41D6-A700-136B85E3F41A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FEC050-E010-4425-959D-A24250F29B53}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2462,7 +2456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2916DA09-A2F4-4F6F-AFD3-4A367DB0AC0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B647A0-38BC-49A7-B017-C840C2C3AAA3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3382,7 +3376,7 @@
         <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -3391,13 +3385,13 @@
         <v>86278</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3406,13 @@
         <v>8633</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -3427,13 +3421,13 @@
         <v>31374</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -3442,13 +3436,13 @@
         <v>40007</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3510,13 @@
         <v>95449</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>337</v>
@@ -3531,13 +3525,13 @@
         <v>226513</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -3546,13 +3540,13 @@
         <v>321963</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3561,13 @@
         <v>51825</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>167</v>
@@ -3582,13 +3576,13 @@
         <v>114607</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>223</v>
@@ -3597,13 +3591,13 @@
         <v>166432</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B24_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2015-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A170D6D9-7C78-4018-969C-4DFCC26FBCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F08B52-B310-4F9A-A3EE-C3B51BB303B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0161FB93-704A-4692-AFD3-304DB4CB823F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB23E463-6072-4858-8C8C-584F3E336046}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="263">
-  <si>
-    <t>Población cuyos trastornos de ansiedad le limita en 2015 (Tasa respuesta: 4,19%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="265">
+  <si>
+    <t>Población cuyos trastornos de ansiedad le limita en 2016 (Tasa respuesta: 4,19%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -84,7 +84,7 @@
     <t>89,97%</t>
   </si>
   <si>
-    <t>44,21%</t>
+    <t>54,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>73,86%</t>
   </si>
   <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -111,16 +111,16 @@
     <t>10,03%</t>
   </si>
   <si>
-    <t>55,79%</t>
+    <t>45,92%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -129,637 +129,643 @@
     <t>27,88%</t>
   </si>
   <si>
-    <t>72,03%</t>
+    <t>71,0%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyos trastornos de ansiedad le limita en 2023 (Tasa respuesta: 7,51%)</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
     <t>24,24%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyos trastornos de ansiedad le limita en 2023 (Tasa respuesta: 7,51%)</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
   </si>
   <si>
     <t>39,08%</t>
@@ -1237,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FEC050-E010-4425-959D-A24250F29B53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD53B011-ED5F-4661-BE8E-B3DC4F3DA8BF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,7 +1704,7 @@
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>26201</v>
+        <v>26200</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1800,7 +1806,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>47286</v>
+        <v>47285</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -2456,7 +2462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B647A0-38BC-49A7-B017-C840C2C3AAA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFA270C-F38B-4400-AAD3-B8F1AED4F0F5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3376,7 +3382,7 @@
         <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -3385,13 +3391,13 @@
         <v>86278</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3412,13 @@
         <v>8633</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -3421,13 +3427,13 @@
         <v>31374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -3436,13 +3442,13 @@
         <v>40007</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3516,13 @@
         <v>95449</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>337</v>
@@ -3525,13 +3531,13 @@
         <v>226513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -3540,13 +3546,13 @@
         <v>321963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3567,13 @@
         <v>51825</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>167</v>
@@ -3576,13 +3582,13 @@
         <v>114607</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>223</v>
@@ -3591,13 +3597,13 @@
         <v>166432</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
